--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/__beans__.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/__beans__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignData\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC37272-9D90-4D7C-A59B-45C6946B467C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7F65C-C04E-4A35-8CEF-673DFDB67DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="870" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>attributeType</t>
+  </si>
+  <si>
+    <t>AttributeType</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,9 +212,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -493,7 +493,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -602,19 +602,19 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
+      <c r="I6" t="s">
+        <v>26</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="2"/>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/__beans__.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7F65C-C04E-4A35-8CEF-673DFDB67DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE0F38-CE6B-4C12-840A-9DABE0CB1780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="870" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>AttributeType</t>
+  </si>
+  <si>
+    <t>AttributeTypeAndFloat</t>
   </si>
 </sst>
 </file>
@@ -493,12 +496,13 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="13.42578125" customWidth="1"/>
@@ -620,7 +624,23 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="3"/>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/__beans__.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tigersun/Code/GobangAdventure/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE0F38-CE6B-4C12-840A-9DABE0CB1780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D299133-1588-2745-AB2C-DDEF2146967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -117,13 +117,22 @@
   </si>
   <si>
     <t>AttributeTypeAndFloat</t>
+  </si>
+  <si>
+    <t>SkillDependency</t>
+  </si>
+  <si>
+    <t>skillId</t>
+  </si>
+  <si>
+    <t>SkillId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,20 +505,20 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="8" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +548,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -582,7 +591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -596,7 +605,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
@@ -605,7 +614,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
         <v>25</v>
       </c>
@@ -614,7 +623,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
         <v>24</v>
       </c>
@@ -623,7 +632,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -634,7 +643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
         <v>24</v>
       </c>
@@ -642,7 +651,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -654,7 +682,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -666,7 +694,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -678,7 +706,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
